--- a/CSVs/TableS6.xlsx
+++ b/CSVs/TableS6.xlsx
@@ -501,10 +501,10 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.05477990446087178</v>
+        <v>0.05477990446087189</v>
       </c>
       <c r="H3">
-        <v>0.06213702585410263</v>
+        <v>0.06213702585410276</v>
       </c>
       <c r="I3">
         <v>1e-07</v>
@@ -531,10 +531,10 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.01361306720743871</v>
+        <v>0.01361306720743882</v>
       </c>
       <c r="H4">
-        <v>0.01433037587931132</v>
+        <v>0.01433037587931143</v>
       </c>
       <c r="I4">
         <v>1e-07</v>
@@ -561,10 +561,10 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.1085357310805214</v>
+        <v>0.1085357310805215</v>
       </c>
       <c r="H5">
-        <v>0.1439189576636757</v>
+        <v>0.1439189576636759</v>
       </c>
       <c r="I5">
         <v>1e-07</v>
@@ -581,28 +581,28 @@
         <v>12</v>
       </c>
       <c r="C6">
-        <v>6.899097607118165</v>
+        <v>6.899097607114527</v>
       </c>
       <c r="D6">
-        <v>0.03175996312806265</v>
+        <v>0.03175996312812041</v>
       </c>
       <c r="E6">
-        <v>0.4531389170189111</v>
+        <v>0.4531389170197352</v>
       </c>
       <c r="F6">
         <v>2</v>
       </c>
       <c r="G6">
-        <v>0.0006124538243252875</v>
+        <v>0.0006124538243253985</v>
       </c>
       <c r="H6">
-        <v>0.0007139298696713038</v>
+        <v>0.0007139298696714331</v>
       </c>
       <c r="I6">
-        <v>307.0235635590194</v>
+        <v>307.0235635595778</v>
       </c>
       <c r="J6">
-        <v>0.003257078995527225</v>
+        <v>0.003257078995521301</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -653,10 +653,10 @@
         <v>2</v>
       </c>
       <c r="G8">
-        <v>0.002726765885434523</v>
+        <v>0.002726765885434745</v>
       </c>
       <c r="H8">
-        <v>0.002870446423110835</v>
+        <v>0.002870446423111069</v>
       </c>
       <c r="I8">
         <v>0.009298010876084157</v>
@@ -671,22 +671,22 @@
         <v>15</v>
       </c>
       <c r="C9">
-        <v>59.06669751492882</v>
+        <v>59.06669751493246</v>
       </c>
       <c r="D9">
-        <v>1.492208819529284e-13</v>
+        <v>1.492208819526568e-13</v>
       </c>
       <c r="E9">
-        <v>2.129026049939291e-12</v>
+        <v>2.129026049935416e-12</v>
       </c>
       <c r="F9">
         <v>2</v>
       </c>
       <c r="G9">
-        <v>0.004622034438656608</v>
+        <v>0.00462203443865683</v>
       </c>
       <c r="H9">
-        <v>0.006128842290688296</v>
+        <v>0.006128842290688592</v>
       </c>
       <c r="I9">
         <v>1e-07</v>
@@ -715,10 +715,10 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.0003954663956408089</v>
+        <v>0.0003954663956409199</v>
       </c>
       <c r="H10">
-        <v>0.0004609903001426415</v>
+        <v>0.0004609903001427709</v>
       </c>
       <c r="I10">
         <v>10.59681480873714</v>
@@ -775,10 +775,10 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.001875714005516005</v>
+        <v>0.001875714005516227</v>
       </c>
       <c r="H12">
-        <v>0.001974550358970156</v>
+        <v>0.00197455035897039</v>
       </c>
       <c r="I12">
         <v>0.007109364996868241</v>
@@ -793,28 +793,28 @@
         <v>15</v>
       </c>
       <c r="C13">
-        <v>31.75778088204243</v>
+        <v>31.75778088204606</v>
       </c>
       <c r="D13">
-        <v>1.746481771799862e-08</v>
+        <v>1.74648177179659e-08</v>
       </c>
       <c r="E13">
-        <v>2.491812901279441e-07</v>
+        <v>2.491812901274773e-07</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.002481571096373814</v>
+        <v>0.002481571096373925</v>
       </c>
       <c r="H13">
-        <v>0.003290576494974383</v>
+        <v>0.00329057649497453</v>
       </c>
       <c r="I13">
-        <v>1.24891062980091e-05</v>
+        <v>1.248910629798638e-05</v>
       </c>
       <c r="J13">
-        <v>80069.78050618491</v>
+        <v>80069.78050633054</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -867,10 +867,10 @@
         <v>2</v>
       </c>
       <c r="G15">
-        <v>0.0003826304707977846</v>
+        <v>0.0003826304707980066</v>
       </c>
       <c r="H15">
-        <v>0.0004340190018679531</v>
+        <v>0.000434019001868205</v>
       </c>
       <c r="I15">
         <v>1186.896948977832</v>
@@ -927,10 +927,10 @@
         <v>2</v>
       </c>
       <c r="G17">
-        <v>1.375200408404442e-05</v>
+        <v>1.375200408415544e-05</v>
       </c>
       <c r="H17">
-        <v>1.823523068263998e-05</v>
+        <v>1.82352306827872e-05</v>
       </c>
       <c r="I17">
         <v>8851.428333300215</v>
